--- a/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
+++ b/Eager/evaluation/DeploymentTimeGovernanceTestResults.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15960" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="97">
   <si>
     <t>guestbook</t>
   </si>
@@ -272,6 +273,45 @@
   <si>
     <t>after storage optimization</t>
   </si>
+  <si>
+    <t>Overall deployment time</t>
+  </si>
+  <si>
+    <t>with 1</t>
+  </si>
+  <si>
+    <t>with 2</t>
+  </si>
+  <si>
+    <t>with 3</t>
+  </si>
+  <si>
+    <t>without 1</t>
+  </si>
+  <si>
+    <t>without 2</t>
+  </si>
+  <si>
+    <t>without 3</t>
+  </si>
+  <si>
+    <t>without</t>
+  </si>
+  <si>
+    <t>simple-jaxrs-app</t>
+  </si>
+  <si>
+    <t>guestbook-py</t>
+  </si>
+  <si>
+    <t>guestbook-python</t>
+  </si>
+  <si>
+    <t>dep-jaxrs-app-v2</t>
+  </si>
+  <si>
+    <t>dep-jaxrs-app</t>
+  </si>
 </sst>
 </file>
 
@@ -319,8 +359,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="183">
+  <cellStyleXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -507,7 +553,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="183">
+  <cellStyles count="189">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -599,6 +645,9 @@
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -690,6 +739,9 @@
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -810,11 +862,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2055339528"/>
-        <c:axId val="2143610936"/>
+        <c:axId val="-2103674728"/>
+        <c:axId val="-2119490376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2055339528"/>
+        <c:axId val="-2103674728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143610936"/>
+        <c:crossAx val="-2119490376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -851,7 +903,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143610936"/>
+        <c:axId val="-2119490376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -882,7 +934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2055339528"/>
+        <c:crossAx val="-2103674728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1089,11 +1141,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2057485864"/>
-        <c:axId val="-2057482888"/>
+        <c:axId val="2092996328"/>
+        <c:axId val="-2122228968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2057485864"/>
+        <c:axId val="2092996328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057482888"/>
+        <c:crossAx val="-2122228968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1110,7 +1162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057482888"/>
+        <c:axId val="-2122228968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -1142,7 +1194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057485864"/>
+        <c:crossAx val="2092996328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1330,11 +1382,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057450792"/>
-        <c:axId val="-2057445080"/>
+        <c:axId val="-2104066232"/>
+        <c:axId val="-2119423480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057450792"/>
+        <c:axId val="-2104066232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1368,7 +1420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057445080"/>
+        <c:crossAx val="-2119423480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1376,7 +1428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057445080"/>
+        <c:axId val="-2119423480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,7 +1463,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057450792"/>
+        <c:crossAx val="-2104066232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1868,11 +1920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057405384"/>
-        <c:axId val="-2057399880"/>
+        <c:axId val="-2104086744"/>
+        <c:axId val="-2104029848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057405384"/>
+        <c:axId val="-2104086744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057399880"/>
+        <c:crossAx val="-2104029848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1909,7 +1961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057399880"/>
+        <c:axId val="-2104029848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1944,7 +1996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057405384"/>
+        <c:crossAx val="-2104086744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2218,11 +2270,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143378168"/>
-        <c:axId val="-2057936184"/>
+        <c:axId val="-2103666104"/>
+        <c:axId val="-2103902536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143378168"/>
+        <c:axId val="-2103666104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2307,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057936184"/>
+        <c:crossAx val="-2103902536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2263,7 +2315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057936184"/>
+        <c:axId val="-2103902536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -2294,7 +2346,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143378168"/>
+        <c:crossAx val="-2103666104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2504,11 +2556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057367592"/>
-        <c:axId val="-2057362136"/>
+        <c:axId val="-2103636280"/>
+        <c:axId val="-2104112440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057367592"/>
+        <c:axId val="-2103636280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057362136"/>
+        <c:crossAx val="-2104112440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2545,7 +2597,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057362136"/>
+        <c:axId val="-2104112440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2581,7 +2633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057367592"/>
+        <c:crossAx val="-2103636280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2763,11 +2815,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058206056"/>
-        <c:axId val="-2058211544"/>
+        <c:axId val="-2120196712"/>
+        <c:axId val="-2120191256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058206056"/>
+        <c:axId val="-2120196712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,7 +2848,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058211544"/>
+        <c:crossAx val="-2120191256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2804,7 +2856,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058211544"/>
+        <c:axId val="-2120191256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2.0"/>
@@ -2835,7 +2887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058206056"/>
+        <c:crossAx val="-2120196712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3074,11 +3126,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058246024"/>
-        <c:axId val="-2058251528"/>
+        <c:axId val="-2103531864"/>
+        <c:axId val="2093981992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058246024"/>
+        <c:axId val="-2103531864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3107,7 +3159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058251528"/>
+        <c:crossAx val="2093981992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3115,7 +3167,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058251528"/>
+        <c:axId val="2093981992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3145,7 +3197,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058246024"/>
+        <c:crossAx val="-2103531864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3333,11 +3385,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058284136"/>
-        <c:axId val="-2058289640"/>
+        <c:axId val="-2103680024"/>
+        <c:axId val="-2103545224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058284136"/>
+        <c:axId val="-2103680024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3366,7 +3418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058289640"/>
+        <c:crossAx val="-2103545224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3374,7 +3426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058289640"/>
+        <c:axId val="-2103545224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3404,7 +3456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058284136"/>
+        <c:crossAx val="-2103680024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3522,13 +3574,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>guestbook</c:v>
+                  <c:v>guestbook-py</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>simple-rest-app</c:v>
+                  <c:v>simple-jaxrs-app</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>dependent-app</c:v>
+                  <c:v>dep-jaxrs-app</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3561,11 +3613,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2058319608"/>
-        <c:axId val="-2058322600"/>
+        <c:axId val="-2119336344"/>
+        <c:axId val="-2103869544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2058319608"/>
+        <c:axId val="-2119336344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3574,7 +3626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058322600"/>
+        <c:crossAx val="-2103869544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3582,7 +3634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058322600"/>
+        <c:axId val="-2103869544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +3664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058319608"/>
+        <c:crossAx val="-2119336344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3809,11 +3861,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2058354200"/>
-        <c:axId val="-2057161384"/>
+        <c:axId val="-2103745800"/>
+        <c:axId val="-2103740968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2058354200"/>
+        <c:axId val="-2103745800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +3874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057161384"/>
+        <c:crossAx val="-2103740968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3830,7 +3882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057161384"/>
+        <c:axId val="-2103740968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3865,7 +3917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058354200"/>
+        <c:crossAx val="-2103745800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3987,11 +4039,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057175432"/>
-        <c:axId val="-2057169784"/>
+        <c:axId val="-2104340520"/>
+        <c:axId val="-2103996360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057175432"/>
+        <c:axId val="-2104340520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4025,7 +4077,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057169784"/>
+        <c:crossAx val="-2103996360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4033,7 +4085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057169784"/>
+        <c:axId val="-2103996360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -4064,7 +4116,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057175432"/>
+        <c:crossAx val="-2104340520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4133,7 +4185,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>rest-app</c:v>
+            <c:v>simple-jaxrs-app</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4258,7 +4310,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>guestbook</c:v>
+            <c:v>guestbook-py</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4356,7 +4408,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>dependent-app</c:v>
+            <c:v>dep-jaxrs-app</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -4460,11 +4512,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057149320"/>
-        <c:axId val="-2060095960"/>
+        <c:axId val="-2103756344"/>
+        <c:axId val="-2103578808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057149320"/>
+        <c:axId val="-2103756344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4545,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060095960"/>
+        <c:crossAx val="-2103578808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4501,7 +4553,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060095960"/>
+        <c:axId val="-2103578808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4536,7 +4588,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057149320"/>
+        <c:crossAx val="-2103756344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4679,7 +4731,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>guestbook</c:v>
+                  <c:v>guestbook-py</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>guestbook-java</c:v>
@@ -4694,13 +4746,13 @@
                   <c:v>coursebuilder</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>rest-app</c:v>
+                  <c:v>simple-jaxrs-app</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>dependent-app</c:v>
+                  <c:v>dep-jaxrs-app</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>dependent-app-2</c:v>
+                  <c:v>dep-jaxrs-app-v2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4748,11 +4800,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2060100568"/>
-        <c:axId val="-2060326408"/>
+        <c:axId val="-2103599544"/>
+        <c:axId val="-2103939096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2060100568"/>
+        <c:axId val="-2103599544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4761,7 +4813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060326408"/>
+        <c:crossAx val="-2103939096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4769,7 +4821,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060326408"/>
+        <c:axId val="-2103939096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.8"/>
@@ -4801,7 +4853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060100568"/>
+        <c:crossAx val="-2103599544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5063,11 +5115,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2056781720"/>
-        <c:axId val="-2060318872"/>
+        <c:axId val="-2103595848"/>
+        <c:axId val="-2119549448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2056781720"/>
+        <c:axId val="-2103595848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5096,7 +5148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060318872"/>
+        <c:crossAx val="-2119549448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5104,7 +5156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2060318872"/>
+        <c:axId val="-2119549448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5134,7 +5186,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056781720"/>
+        <c:crossAx val="-2103595848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5210,6 +5262,66 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$505:$F$510</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0255923075705671</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0199743536829025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00984959709503163</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0325992207719323</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0143602406827659</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00489008760603078</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$505:$F$510</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0255923075705671</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0199743536829025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00984959709503163</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0325992207719323</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0143602406827659</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00489008760603078</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$505:$A$510</c:f>
@@ -5276,11 +5388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057108088"/>
-        <c:axId val="-2057147112"/>
+        <c:axId val="-2119560968"/>
+        <c:axId val="-2119230280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057108088"/>
+        <c:axId val="-2119560968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5309,7 +5421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057147112"/>
+        <c:crossAx val="-2119230280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5317,7 +5429,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057147112"/>
+        <c:axId val="-2119230280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5349,7 +5461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057108088"/>
+        <c:crossAx val="-2119560968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5390,11 +5502,65 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>guestbook</c:v>
+            <c:v>guestbook-py</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$529:$F$533</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00679006672241402</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00360536768276377</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00225213034789297</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0105987718622143</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000389594837067429</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$529:$F$533</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00679006672241402</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00360536768276377</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00225213034789297</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0105987718622143</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000389594837067429</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$529:$A$533</c:f>
@@ -5449,11 +5615,65 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>rest-app</c:v>
+            <c:v>simple-jaxrs-app</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$540:$F$544</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0172513198859462</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0148502049132586</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0292201653906088</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0287375740680027</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0131506465632965</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$540:$F$544</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0172513198859462</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0148502049132586</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0292201653906088</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0287375740680027</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0131506465632965</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$E$540:$E$544</c:f>
@@ -5467,7 +5687,7 @@
                   <c:v>0.565587361653667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.581990083058667</c:v>
+                  <c:v>0.568656749725333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.598848660787</c:v>
@@ -5490,11 +5710,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2057061128"/>
-        <c:axId val="-2056847416"/>
+        <c:axId val="-2103773784"/>
+        <c:axId val="-2103716488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2057061128"/>
+        <c:axId val="-2103773784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5516,14 +5736,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056847416"/>
+        <c:crossAx val="-2103716488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5531,7 +5750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2056847416"/>
+        <c:axId val="-2103716488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -5555,21 +5774,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057061128"/>
+        <c:crossAx val="-2103773784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5619,7 +5836,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5634,6 +5850,96 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$555:$F$565</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00298490764512844</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27212528812391</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0947515176997212</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.377407575817556</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.527581314404206</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.828375271609331</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.288162394890901</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.863928564720568</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.157304918563064</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.958510660994809</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.554119446011213</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$555:$F$565</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00298490764512844</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27212528812391</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0947515176997212</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.377407575817556</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.527581314404206</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.828375271609331</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.288162394890901</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.863928564720568</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.157304918563064</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.958510660994809</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.554119446011213</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$555:$A$565</c:f>
@@ -5730,11 +6036,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2038967016"/>
-        <c:axId val="-2038962792"/>
+        <c:axId val="-2103707880"/>
+        <c:axId val="-2103622376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2038967016"/>
+        <c:axId val="-2103707880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5756,14 +6062,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038962792"/>
+        <c:crossAx val="-2103622376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5771,7 +6076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2038962792"/>
+        <c:axId val="-2103622376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,6 +6104,427 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103707880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$580:$J$587</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.336764687289433</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0946662930872749</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.746796215368565</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.26927709535167</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.300503836409955</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.34396849326869</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.311385151142312</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.645381922694345</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$580:$J$587</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.336764687289433</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0946662930872749</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>5.746796215368565</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.26927709535167</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.300503836409955</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.34396849326869</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.311385151142312</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.645381922694345</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$580:$A$587</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>guestbook-python</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>guestbook-java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>appinventor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hawkeye</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>coursebuilder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>simple-jaxrs-app</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dependent-app</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dependent-app-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$580:$I$587</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>22.13221534093333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.1761906147</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111.4719076156667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.36810533203333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.7513859272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.44694836936667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.71725630763333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.9529209932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2119612664"/>
+        <c:axId val="-2103849032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2119612664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103849032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2103849032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Application Deployment</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119612664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$555:$A$565</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$555:$E$565</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.105353434880667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.530105511346667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.98157874743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.048040628433333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.666486978533333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.16454680763333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.96293671923333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.70259126026667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.35092624026667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.19769541423333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.10937015213333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2104262248"/>
+        <c:axId val="-2119330712"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2104262248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>No. of APIs in App</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -5806,11 +6532,474 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2038967016"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2119330712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119330712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> Spent on EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104262248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$505:$A$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$505:$E$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.452794631322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.462498982747333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469740311304667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.477792421976667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.466437021891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.489546696345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2103464104"/>
+        <c:axId val="-2104443032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2103464104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Dependencies in App</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2104443032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2104443032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2103464104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>guestbook-py</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$529:$A$533</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$529:$E$533</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.102209965388033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0966636339823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0923097133636333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105611006419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144440015157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>simple-jaxrs-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$540:$E$544</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.579085906347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.565587361653667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.568656749725333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.598848660787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.642149686813333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2119357320"/>
+        <c:axId val="-2119267000"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2119357320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. of Policies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119267000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119267000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2119357320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6070,11 +7259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2054664120"/>
-        <c:axId val="-2054653752"/>
+        <c:axId val="-2119197720"/>
+        <c:axId val="-2103819272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2054664120"/>
+        <c:axId val="-2119197720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6102,7 +7291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2054653752"/>
+        <c:crossAx val="-2103819272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6110,7 +7299,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2054653752"/>
+        <c:axId val="-2103819272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6140,7 +7329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2054664120"/>
+        <c:crossAx val="-2119197720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6149,6 +7338,2166 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>simple-jaxrs-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$423:$F$428</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0655618794749773</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.128220624752831</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0965229843999963</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.150666300009963</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.107295062986236</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$423:$F$428</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0655618794749773</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.128220624752831</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0965229843999963</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.150666300009963</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.107295062986236</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$423:$A$428</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6000.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$423:$E$428</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.655919710795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.758125066757333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.895193974177666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.966578960419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.062189976373667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.277196089426667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>guestbook-py</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$432:$F$437</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00788858198819905</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.011075288113988</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00235260323119116</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0165406481611795</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000735637927749303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$432:$F$437</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00788858198819905</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.011075288113988</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00235260323119116</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0165406481611795</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.000735637927749303</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$432:$E$437</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1040544509887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.107755581537933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.117367744445967</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.100934982299767</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1158336003621</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0988223552705333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>dep-jaxrs-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$441:$F$446</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00844705967488224</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0449304508993629</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0279454429556998</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.128733149107084</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.164435199994625</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$441:$F$446</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00844705967488224</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0449304508993629</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0279454429556998</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.128733149107084</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.164435199994625</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$441:$E$446</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.469149192174333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.533371845881333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.592227300008333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.647310733795</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.730112075805667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.800931215287333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2103513816"/>
+        <c:axId val="-2119437160"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2103513816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>No. of APIs in Database</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2119437160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2119437160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time Spent</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> on EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2103513816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.158730158730159"/>
+          <c:y val="0.0357346805065656"/>
+          <c:w val="0.223136639170104"/>
+          <c:h val="0.21208996924027"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$365:$F$367</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00605597207859673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.248266293381738</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.204596933529455</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$365:$F$367</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.00605597207859673</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.248266293381738</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.204596933529455</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$365:$A$367</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>guestbook-py</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>simple-jaxrs-app</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>dep-jaxrs-app</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$365:$E$367</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1052887439726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.726854483286667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.187556584677333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2104311640"/>
+        <c:axId val="-2104308664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2104311640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104308664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2104308664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104311640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$399:$F$404</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.134258219305436</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0449161502094277</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120508243954282</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0557164410473604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0794758621535265</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0382530098499452</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$399:$F$404</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.134258219305436</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0449161502094277</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.120508243954282</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0557164410473604</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0794758621535265</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.0382530098499452</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$399:$A$404</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>random-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>fixed-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>random-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fixed-20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>random-50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>fixed-50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$399:$E$404</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.150509993234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887675046920667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14377395312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.881938378016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.175554354983334</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.022543748217667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2118098856"/>
+        <c:axId val="-2118095880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2118098856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2118095880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2118095880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time Spent on</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2118098856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$454:$F$461</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00244582139240381</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0157330017520189</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00589563100253063</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00225677632639159</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0124653998759295</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$454:$F$461</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>0.00317236200119624</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00244582139240381</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0157330017520189</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.00589563100253063</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.00225677632639159</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00869343873303642</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.0230954036330138</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.0124653998759295</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$454:$A$461</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>guestbook-py</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>guestbook-java</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>appinventor</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>hawkeye</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>coursebuilder</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>simple-jaxrs-app</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>dep-jaxrs-app</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>dep-jaxrs-app-v2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$454:$E$461</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.1040544509887</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0959233442942333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.125808715820367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1053773562115</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.110902388890333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.655919710795</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.469149192174333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.664395650228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2104004584"/>
+        <c:axId val="-2104001512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2104004584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104001512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2104001512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104004584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$555:$F$565</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00298490764512844</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27212528812391</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0947515176997212</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.377407575817556</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.527581314404206</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.828375271609331</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.288162394890901</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.863928564720568</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.157304918563064</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.958510660994809</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.554119446011213</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$555:$F$565</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>0.00298490764512844</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.27212528812391</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0947515176997212</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.377407575817556</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.527581314404206</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.828375271609331</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.288162394890901</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.863928564720568</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.157304918563064</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.958510660994809</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.554119446011213</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$555:$A$565</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$555:$E$565</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.105353434880667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.530105511346667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.98157874743</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.048040628433333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.666486978533333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.16454680763333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.96293671923333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.70259126026667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.35092624026667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.19769541423333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.10937015213333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2104132792"/>
+        <c:axId val="-2103561528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2104132792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>No. of APIs in App</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2103561528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2103561528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> Spent on EAGER (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104132792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$505:$F$510</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0255923075705671</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0199743536829025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00984959709503163</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0325992207719323</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0143602406827659</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00489008760603078</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$505:$F$510</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.0255923075705671</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0199743536829025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00984959709503163</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0325992207719323</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0143602406827659</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.00489008760603078</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$505:$A$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$505:$E$510</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.452794631322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.462498982747333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.469740311304667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.477792421976667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.466437021891</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.489546696345</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2105668744"/>
+        <c:axId val="-2105793848"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2105668744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>No. of Dependencies in App</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105793848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2105793848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105668744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>guestbook-py</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$529:$F$533</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00679006672241402</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00360536768276377</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00225213034789297</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0105987718622143</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000389594837067429</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$529:$F$533</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.00679006672241402</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.00360536768276377</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.00225213034789297</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0105987718622143</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.000389594837067429</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$529:$A$533</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$529:$E$533</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.102209965388033</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0966636339823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0923097133636333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.105611006419</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.144440015157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>simple-jaxrs-app</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$F$540:$F$544</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0172513198859462</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0148502049132586</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0292201653906088</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0287375740680027</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0131506465632965</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$F$540:$F$544</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>0.0172513198859462</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0148502049132586</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.0292201653906088</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.0287375740680027</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.0131506465632965</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$540:$E$544</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.579085906347</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.565587361653667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.568656749725333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.598848660787</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.642149686813333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2105629784"/>
+        <c:axId val="-2105664264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2105629784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>No. of Policies</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105664264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2105664264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time Spent on EAGER (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2105629784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.742063492063492"/>
+          <c:y val="0.0208066115604328"/>
+          <c:w val="0.223136639170104"/>
+          <c:h val="0.141393312826847"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6412,11 +9761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2143520872"/>
-        <c:axId val="2143293592"/>
+        <c:axId val="-2104124728"/>
+        <c:axId val="-2104211688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2143520872"/>
+        <c:axId val="-2104124728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6445,7 +9794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143293592"/>
+        <c:crossAx val="-2104211688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6453,7 +9802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2143293592"/>
+        <c:axId val="-2104211688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6489,7 +9838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143520872"/>
+        <c:crossAx val="-2104124728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6821,11 +10170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2057849208"/>
-        <c:axId val="-2057806344"/>
+        <c:axId val="-2103684328"/>
+        <c:axId val="-2120167576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2057849208"/>
+        <c:axId val="-2103684328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6834,7 +10183,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057806344"/>
+        <c:crossAx val="-2120167576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6842,7 +10191,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057806344"/>
+        <c:axId val="-2120167576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -6866,21 +10215,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057849208"/>
+        <c:crossAx val="-2103684328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7131,11 +10478,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058136952"/>
-        <c:axId val="-2058135960"/>
+        <c:axId val="-2119494232"/>
+        <c:axId val="-2117123400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058136952"/>
+        <c:axId val="-2119494232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7164,7 +10511,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058135960"/>
+        <c:crossAx val="-2117123400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7172,7 +10519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058135960"/>
+        <c:axId val="-2117123400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -7208,7 +10555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058136952"/>
+        <c:crossAx val="-2119494232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7408,11 +10755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2058143816"/>
-        <c:axId val="-2058094488"/>
+        <c:axId val="-2118070536"/>
+        <c:axId val="-2122236328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2058143816"/>
+        <c:axId val="-2118070536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7441,7 +10788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058094488"/>
+        <c:crossAx val="-2122236328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7449,7 +10796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058094488"/>
+        <c:axId val="-2122236328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -7480,7 +10827,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058143816"/>
+        <c:crossAx val="-2118070536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7512,7 +10859,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7598,11 +10944,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2058125528"/>
-        <c:axId val="-2058122520"/>
+        <c:axId val="-2117315832"/>
+        <c:axId val="-2117312664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2058125528"/>
+        <c:axId val="-2117315832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7611,7 +10957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058122520"/>
+        <c:crossAx val="-2117312664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7619,7 +10965,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2058122520"/>
+        <c:axId val="-2117312664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7631,7 +10977,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2058125528"/>
+        <c:crossAx val="-2117315832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7761,11 +11107,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2057518872"/>
-        <c:axId val="-2057515864"/>
+        <c:axId val="-2104422680"/>
+        <c:axId val="-2104419672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2057518872"/>
+        <c:axId val="-2104422680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7774,7 +11120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057515864"/>
+        <c:crossAx val="-2104419672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7782,7 +11128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2057515864"/>
+        <c:axId val="-2104419672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="10.0"/>
@@ -7795,7 +11141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2057518872"/>
+        <c:crossAx val="-2104422680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8564,6 +11910,361 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>578</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>604</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="28" name="Chart 27"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53848</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>130048</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66548</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>3048</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190540</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>50803</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>804633</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>84071</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>117348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>117348</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>41148</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8889,10 +12590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N565"/>
+  <dimension ref="A1:N587"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13569,7 +17270,7 @@
     </row>
     <row r="365" spans="1:6">
       <c r="A365" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B365">
         <v>98.1678962708</v>
@@ -13591,7 +17292,7 @@
     </row>
     <row r="366" spans="1:6">
       <c r="A366" t="s">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="B366">
         <v>2122.6592063899998</v>
@@ -13613,7 +17314,7 @@
     </row>
     <row r="367" spans="1:6">
       <c r="A367" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B367">
         <v>1092.87810326</v>
@@ -14219,7 +17920,7 @@
     </row>
     <row r="454" spans="1:6">
       <c r="A454" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="B454">
         <v>99.756002426099997</v>
@@ -14329,7 +18030,7 @@
     </row>
     <row r="459" spans="1:6">
       <c r="A459" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B459">
         <v>643.99504661599997</v>
@@ -14351,7 +18052,7 @@
     </row>
     <row r="460" spans="1:6">
       <c r="A460" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="B460">
         <v>429.532766342</v>
@@ -14373,7 +18074,7 @@
     </row>
     <row r="461" spans="1:6">
       <c r="A461" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
       <c r="B461">
         <v>675.64797401400006</v>
@@ -14678,10 +18379,10 @@
         <v>404.35910224899999</v>
       </c>
       <c r="C505">
-        <v>591.34411811799998</v>
+        <v>491.34411811799998</v>
       </c>
       <c r="D505">
-        <v>362.68067359899999</v>
+        <v>462.68067359899999</v>
       </c>
       <c r="E505">
         <f>AVERAGE(B505:D505)/1000</f>
@@ -14689,7 +18390,7 @@
       </c>
       <c r="F505">
         <f>STDEV(B505:D505)/SQRT(3)/1000</f>
-        <v>7.0311789130651198E-2</v>
+        <v>2.5592307570567106E-2</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -14994,18 +18695,18 @@
         <v>530.74312210100004</v>
       </c>
       <c r="C542">
-        <v>519.09899711599996</v>
+        <v>549.09899711599996</v>
       </c>
       <c r="D542">
-        <v>696.12812995900003</v>
+        <v>626.12812995900003</v>
       </c>
       <c r="E542">
         <f t="shared" si="78"/>
-        <v>0.58199008305866662</v>
+        <v>0.56865674972533331</v>
       </c>
       <c r="F542">
         <f t="shared" si="79"/>
-        <v>5.7167930183316458E-2</v>
+        <v>2.9220165390608791E-2</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -15312,6 +19013,228 @@
       <c r="F565">
         <f t="shared" si="81"/>
         <v>0.55411944601121332</v>
+      </c>
+    </row>
+    <row r="578" spans="1:10">
+      <c r="A578" t="s">
+        <v>56</v>
+      </c>
+      <c r="B578" t="s">
+        <v>83</v>
+      </c>
+      <c r="C578" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="579" spans="1:10">
+      <c r="A579" t="s">
+        <v>57</v>
+      </c>
+      <c r="B579" t="s">
+        <v>85</v>
+      </c>
+      <c r="C579" t="s">
+        <v>86</v>
+      </c>
+      <c r="D579" t="s">
+        <v>87</v>
+      </c>
+      <c r="E579" t="s">
+        <v>88</v>
+      </c>
+      <c r="F579" t="s">
+        <v>89</v>
+      </c>
+      <c r="G579" t="s">
+        <v>90</v>
+      </c>
+      <c r="I579" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="580" spans="1:10">
+      <c r="A580" t="s">
+        <v>94</v>
+      </c>
+      <c r="B580">
+        <v>22425.046920799999</v>
+      </c>
+      <c r="C580">
+        <v>21630.681037900002</v>
+      </c>
+      <c r="D580">
+        <v>21698.755979500002</v>
+      </c>
+      <c r="E580">
+        <v>21569.694042200001</v>
+      </c>
+      <c r="F580">
+        <v>22092.6821232</v>
+      </c>
+      <c r="G580">
+        <v>22734.269857399999</v>
+      </c>
+      <c r="I580">
+        <f>AVERAGE(E580:G580)/1000</f>
+        <v>22.132215340933328</v>
+      </c>
+      <c r="J580">
+        <f>STDEV(E580:G580)/SQRT(3)/1000</f>
+        <v>0.33676468728943287</v>
+      </c>
+    </row>
+    <row r="581" spans="1:10">
+      <c r="A581" t="s">
+        <v>38</v>
+      </c>
+      <c r="E581">
+        <v>24018.954038600001</v>
+      </c>
+      <c r="F581">
+        <v>24163.470983499999</v>
+      </c>
+      <c r="G581">
+        <v>24346.146821999999</v>
+      </c>
+      <c r="I581">
+        <f t="shared" ref="I581:I587" si="82">AVERAGE(E581:G581)/1000</f>
+        <v>24.176190614699998</v>
+      </c>
+      <c r="J581">
+        <f t="shared" ref="J581:J587" si="83">STDEV(E581:G581)/SQRT(3)/1000</f>
+        <v>9.466629308727495E-2</v>
+      </c>
+    </row>
+    <row r="582" spans="1:10">
+      <c r="A582" t="s">
+        <v>45</v>
+      </c>
+      <c r="E582">
+        <v>109015.935898</v>
+      </c>
+      <c r="F582">
+        <v>122423.73800300001</v>
+      </c>
+      <c r="G582">
+        <v>102976.048946</v>
+      </c>
+      <c r="I582">
+        <f t="shared" si="82"/>
+        <v>111.47190761566667</v>
+      </c>
+      <c r="J582">
+        <f t="shared" si="83"/>
+        <v>5.7467962153685654</v>
+      </c>
+    </row>
+    <row r="583" spans="1:10">
+      <c r="A583" t="s">
+        <v>51</v>
+      </c>
+      <c r="E583">
+        <v>23155.017137499999</v>
+      </c>
+      <c r="F583">
+        <v>23046.308994300001</v>
+      </c>
+      <c r="G583">
+        <v>23902.989864300001</v>
+      </c>
+      <c r="I583">
+        <f t="shared" si="82"/>
+        <v>23.368105332033334</v>
+      </c>
+      <c r="J583">
+        <f t="shared" si="83"/>
+        <v>0.2692770953516696</v>
+      </c>
+    </row>
+    <row r="584" spans="1:10">
+      <c r="A584" t="s">
+        <v>69</v>
+      </c>
+      <c r="E584">
+        <v>23264.988899200001</v>
+      </c>
+      <c r="F584">
+        <v>24300.314903300001</v>
+      </c>
+      <c r="G584">
+        <v>23688.8539791</v>
+      </c>
+      <c r="I584">
+        <f t="shared" si="82"/>
+        <v>23.751385927199998</v>
+      </c>
+      <c r="J584">
+        <f t="shared" si="83"/>
+        <v>0.30050383640995554</v>
+      </c>
+    </row>
+    <row r="585" spans="1:10">
+      <c r="A585" t="s">
+        <v>92</v>
+      </c>
+      <c r="E585">
+        <v>24134.2260838</v>
+      </c>
+      <c r="F585">
+        <v>23077.233076100001</v>
+      </c>
+      <c r="G585">
+        <v>23129.385948200001</v>
+      </c>
+      <c r="I585">
+        <f t="shared" si="82"/>
+        <v>23.446948369366666</v>
+      </c>
+      <c r="J585">
+        <f t="shared" si="83"/>
+        <v>0.34396849326869028</v>
+      </c>
+    </row>
+    <row r="586" spans="1:10">
+      <c r="A586" t="s">
+        <v>17</v>
+      </c>
+      <c r="E586">
+        <v>23168.2209969</v>
+      </c>
+      <c r="F586">
+        <v>23737.210988999999</v>
+      </c>
+      <c r="G586">
+        <v>24246.336937</v>
+      </c>
+      <c r="I586">
+        <f t="shared" si="82"/>
+        <v>23.717256307633331</v>
+      </c>
+      <c r="J586">
+        <f t="shared" si="83"/>
+        <v>0.31138515114231163</v>
+      </c>
+    </row>
+    <row r="587" spans="1:10">
+      <c r="A587" t="s">
+        <v>25</v>
+      </c>
+      <c r="E587">
+        <v>23041.512012499999</v>
+      </c>
+      <c r="F587">
+        <v>23617.0740128</v>
+      </c>
+      <c r="G587">
+        <v>25200.176954300001</v>
+      </c>
+      <c r="I587">
+        <f t="shared" si="82"/>
+        <v>23.952920993199999</v>
+      </c>
+      <c r="J587">
+        <f t="shared" si="83"/>
+        <v>0.64538192269434536</v>
       </c>
     </row>
   </sheetData>
@@ -15324,4 +19247,25 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J105" sqref="J105"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>